--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="187">
   <si>
     <t>测试点说明</t>
   </si>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IP为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -116,10 +112,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不勾选运维协议</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -359,10 +351,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows2008 域控服务器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -375,10 +363,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.219</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -439,10 +423,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Windows2008域控(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>主机名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -459,14 +439,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>独立主机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>域内主机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.180</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -479,26 +451,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>window</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>window</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑window资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>commonwindow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.35</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -540,10 +500,6 @@
   </si>
   <si>
     <t>172.16.10.32</t>
-  </si>
-  <si>
-    <t>Windows2008域控(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -663,10 +619,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>域内主机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>删除域内主机资源</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -816,6 +768,54 @@
   </si>
   <si>
     <t>172.16.10.155</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>windowyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>域内主机yy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立主机yy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.230</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonwindowyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows2008域控(172.16.10.230)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除域控资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除独立主机资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除windows资源</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +971,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1343,14 +1340,14 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="18.375" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="56.5" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="13.25" customWidth="1"/>
@@ -1385,19 +1382,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1409,101 +1406,101 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="R2" s="5">
         <v>389</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1518,54 +1515,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1580,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -1598,78 +1595,78 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1680,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1702,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1722,132 +1719,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1858,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1909,19 +1906,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1933,39 +1930,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1992,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2006,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2039,19 +2036,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -2063,13 +2060,13 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2078,25 +2075,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2105,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2119,13 +2116,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2134,27 +2131,27 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2163,27 +2160,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2192,27 +2189,27 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2221,24 +2218,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2250,27 +2247,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2279,21 +2276,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2308,27 +2305,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2337,27 +2334,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2366,27 +2363,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2395,36 +2392,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2439,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2464,22 +2461,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2487,36 +2484,36 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2528,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2540,12 +2537,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2557,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2569,12 +2566,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2586,10 +2583,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2598,12 +2595,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2612,13 +2609,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2627,7 +2624,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2638,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2661,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2672,19 +2669,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2695,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2717,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2725,16 +2722,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2745,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2771,19 +2768,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2791,16 +2788,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2812,50 +2809,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2864,102 +2861,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2968,24 +2965,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2994,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3005,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3025,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3039,22 +3036,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -3062,12 +3059,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3075,12 +3072,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3090,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3101,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3123,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3131,20 +3128,59 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="19"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
